--- a/Italian_poets.xlsx
+++ b/Italian_poets.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirth\Documents\UNI\MASTER\SA23\Digital Methodology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6BBAD-EED7-4259-B524-B4F200828D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481317E8-9649-498F-A881-50FD95AA7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{370E5A65-EA9D-4454-8582-FD1533876402}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{370E5A65-EA9D-4454-8582-FD1533876402}"/>
   </bookViews>
   <sheets>
     <sheet name="Personne" sheetId="1" r:id="rId1"/>
-    <sheet name="Lieu d'origine" sheetId="2" r:id="rId2"/>
-    <sheet name="Inst. d'étude" sheetId="3" r:id="rId3"/>
-    <sheet name="Première publication" sheetId="4" r:id="rId4"/>
-    <sheet name="Périodiques" sheetId="7" r:id="rId5"/>
+    <sheet name="Lieu" sheetId="2" r:id="rId2"/>
+    <sheet name="Institution" sheetId="3" r:id="rId3"/>
+    <sheet name="Ouvrage" sheetId="4" r:id="rId4"/>
+    <sheet name="Maison d'édition" sheetId="10" r:id="rId5"/>
+    <sheet name="Périodique" sheetId="7" r:id="rId6"/>
+    <sheet name="Parti Politique" sheetId="11" r:id="rId7"/>
+    <sheet name="Relation Personne-Ouvrage" sheetId="8" r:id="rId8"/>
+    <sheet name="Relation Personne-Périodique" sheetId="9" r:id="rId9"/>
+    <sheet name="Relation Personne-Parti" sheetId="12" r:id="rId10"/>
+    <sheet name="Relation Parti-Périodique" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="196">
   <si>
     <t>Prénom</t>
   </si>
@@ -258,20 +264,448 @@
     <t>Oui</t>
   </si>
   <si>
-    <t>Non (mais Résistance)</t>
-  </si>
-  <si>
     <t>Contributions sur périodiques</t>
   </si>
   <si>
-    <t>BCP de périodiques pour chaque auteur: + dans une même ligne?</t>
+    <t>Ouvrage</t>
+  </si>
+  <si>
+    <t>Personne</t>
+  </si>
+  <si>
+    <t>Type de relation</t>
+  </si>
+  <si>
+    <t>Année de fondation</t>
+  </si>
+  <si>
+    <t>Périodique</t>
+  </si>
+  <si>
+    <t>L'Italia letteraria</t>
+  </si>
+  <si>
+    <t>Fin publication</t>
+  </si>
+  <si>
+    <t>Révue litéraire</t>
+  </si>
+  <si>
+    <t>La Lettura</t>
+  </si>
+  <si>
+    <t>Révue culturelle</t>
+  </si>
+  <si>
+    <t>Il costume politico e letterario</t>
+  </si>
+  <si>
+    <t>Il Mondo</t>
+  </si>
+  <si>
+    <t>Révue politique et culturelle</t>
+  </si>
+  <si>
+    <t>Tempo illustrato</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Il Mattino</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Il Bò</t>
+  </si>
+  <si>
+    <t>Feuille universitaire</t>
+  </si>
+  <si>
+    <t>La Fiera Letteraria</t>
+  </si>
+  <si>
+    <t>Révue litéraire, scientifique, artistique</t>
+  </si>
+  <si>
+    <t>Révue marxiste politique et litéraire</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Comunità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zanzotto a collaboré à Il Mondo </t>
+  </si>
+  <si>
+    <t>Il Caffè</t>
+  </si>
+  <si>
+    <t>Révue d'actualité et culture</t>
+  </si>
+  <si>
+    <t>L'Approdo letterario</t>
+  </si>
+  <si>
+    <t>Révue litéraire et artistique</t>
+  </si>
+  <si>
+    <t>Paragone</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Révue de critique litéraire et artistique</t>
+  </si>
+  <si>
+    <t>Nuovi Argomenti</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Milano, Roma</t>
+  </si>
+  <si>
+    <t>Roma, Ivrea</t>
+  </si>
+  <si>
+    <t>Il Giorno</t>
+  </si>
+  <si>
+    <t>Avanti!</t>
+  </si>
+  <si>
+    <t>Corriere della sera</t>
+  </si>
+  <si>
+    <t>L'Ordine Nuovo</t>
+  </si>
+  <si>
+    <t>Torino, Roma</t>
+  </si>
+  <si>
+    <t>Journal socialiste-communiste</t>
+  </si>
+  <si>
+    <t>L'Italia libera</t>
+  </si>
+  <si>
+    <t>La Stampa</t>
+  </si>
+  <si>
+    <t>Quaderni piacentini</t>
+  </si>
+  <si>
+    <t>Piacenza</t>
+  </si>
+  <si>
+    <t>Révue politique</t>
+  </si>
+  <si>
+    <t>Il Verri</t>
+  </si>
+  <si>
+    <t>Paese sera</t>
+  </si>
+  <si>
+    <t>L'Unità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il Lavoro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal </t>
+  </si>
+  <si>
+    <t>Ivrea</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Campania</t>
+  </si>
+  <si>
+    <t>Toscana</t>
+  </si>
+  <si>
+    <t>Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Leonardo Sinisgalli</t>
+  </si>
+  <si>
+    <t>Andrea Zanzotto</t>
+  </si>
+  <si>
+    <t>Carlo Levi</t>
+  </si>
+  <si>
+    <t>Giovanni Raboni</t>
+  </si>
+  <si>
+    <t>Edoardo Sanguineti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondation </t>
+  </si>
+  <si>
+    <t>Segrate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leonardo Sinisgalli a écrit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cuore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Andrea Zanzotto a écrit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dietro il paesaggio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carlo Levi a écrit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cristo si è fermato a Eboli</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giovanni Raboni a écrit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Il catalogo è questo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edoardo Sanguineti a écrit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Laborintus</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunità </t>
+  </si>
+  <si>
+    <t>L'Approdo Letterario</t>
+  </si>
+  <si>
+    <t>Corriere della Sera</t>
+  </si>
+  <si>
+    <t>L'Italia Libera</t>
+  </si>
+  <si>
+    <t>Il Lavoro</t>
+  </si>
+  <si>
+    <t>Sinisgalli a collaboré à L'Italia letteraria</t>
+  </si>
+  <si>
+    <t>Sinisgalli a collaboré à La Lettura</t>
+  </si>
+  <si>
+    <t>Sinisgalli a collaboré à Il costume politico e letterario</t>
+  </si>
+  <si>
+    <t>Sinisgalli a collaboré à Il Mondo</t>
+  </si>
+  <si>
+    <t>Sinisgalli a collaboré à Tempo illustrato</t>
+  </si>
+  <si>
+    <t>Sinisgalli a collaboré à Il Mattino</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Il Bò</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à La Fiera Letteraria</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Comunità</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Il Caffè</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à L'Approdo Letterario</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Paragone</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Nuovi Argomenti</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Il Giorno</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Corriere della Sera</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à L'Ordine Nuovo</t>
+  </si>
+  <si>
+    <t>Levi a collaboré à L'Italia Libera</t>
+  </si>
+  <si>
+    <t>Levi a collaboré à La Stampa</t>
+  </si>
+  <si>
+    <t>Raboni a collaboré à Paragone</t>
+  </si>
+  <si>
+    <t>Raboni a collaboré à Quaderni piacentini</t>
+  </si>
+  <si>
+    <t>Raboni a collaboré à Corriere della Sera</t>
+  </si>
+  <si>
+    <t>Sanguineti a collaboré à Il Giorno</t>
+  </si>
+  <si>
+    <t>Sanguineti a collaboré à Il Verri</t>
+  </si>
+  <si>
+    <t>Sanguineti a collaboré à Paese sera</t>
+  </si>
+  <si>
+    <t>Sanguineti a collaboré à L'Unità</t>
+  </si>
+  <si>
+    <t>Sanguineti a collaboré à Il Lavoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partito Socialista Italiano </t>
+  </si>
+  <si>
+    <t>Sigle</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>Partito Comunista Italiano</t>
+  </si>
+  <si>
+    <t>PCI</t>
+  </si>
+  <si>
+    <t>Partito d'Azione</t>
+  </si>
+  <si>
+    <t>centre-gauche</t>
+  </si>
+  <si>
+    <t>PdA</t>
+  </si>
+  <si>
+    <t>Parti</t>
+  </si>
+  <si>
+    <t>Carlo Levi a milité dans le Partito d'Azione</t>
+  </si>
+  <si>
+    <t>L'Italia libera était le journal officiel du Partito d'Azione</t>
+  </si>
+  <si>
+    <t>Partito Socialista Italiano</t>
+  </si>
+  <si>
+    <t>L'Unità était le journal officiel du Parito Comunista Italiano</t>
+  </si>
+  <si>
+    <t>extrème gauche</t>
+  </si>
+  <si>
+    <t>Journal politique</t>
+  </si>
+  <si>
+    <t>Edoardo Sanguineti a milité dans le Partito Comunista Italiano</t>
+  </si>
+  <si>
+    <t>gauche</t>
+  </si>
+  <si>
+    <t>Collocation</t>
+  </si>
+  <si>
+    <t>Zanzotto a collaboré à Avanti!</t>
+  </si>
+  <si>
+    <t>Avanti! Était le journal officiel du Partito Socialista Italiano</t>
+  </si>
+  <si>
+    <t>Movimento Comunità</t>
+  </si>
+  <si>
+    <t>Comunità était l'organe d'information du Movimento Comunità</t>
+  </si>
+  <si>
+    <t>L'Ordine Nuovo a été le journal officiel du Partito Comunista Italiano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +715,14 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,10 +750,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -628,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9B09D6-CDB8-4E8B-8E58-1A9821430EF9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +1108,7 @@
         <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -708,7 +1151,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
@@ -792,19 +1235,164 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB3954-A9D6-40E5-A5F1-2B635C528FA5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C1D23-2997-4A36-BCA0-AE68047317B2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3F588D-7377-49CA-A736-381D5F44EB3F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,6 +1496,142 @@
       </c>
       <c r="E6">
         <v>8.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>41.53</v>
+      </c>
+      <c r="E7">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>45.49</v>
+      </c>
+      <c r="E8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>40.5</v>
+      </c>
+      <c r="E9">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>45.28</v>
+      </c>
+      <c r="E10">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>45.24</v>
+      </c>
+      <c r="E11">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>43.46</v>
+      </c>
+      <c r="E12">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13">
+        <v>45.03</v>
+      </c>
+      <c r="E13">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>45.29</v>
+      </c>
+      <c r="E14">
+        <v>9.17</v>
       </c>
     </row>
   </sheetData>
@@ -1022,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F68DD9-1E2C-42D0-8CDB-C002396F748E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1778,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -1071,7 +1795,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
@@ -1091,7 +1815,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
@@ -1108,7 +1832,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -1126,7 +1850,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
@@ -1155,19 +1879,1008 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37AD4E5-2594-4294-BADD-D5E0C242FC23}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5255B4C-CEC9-4824-BC38-28C035677881}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37AD4E5-2594-4294-BADD-D5E0C242FC23}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>1929</v>
+      </c>
+      <c r="C2">
+        <v>1936</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>1901</v>
+      </c>
+      <c r="C3">
+        <v>1946</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>1945</v>
+      </c>
+      <c r="C4">
+        <v>1950</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>1949</v>
+      </c>
+      <c r="C5">
+        <v>1966</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>1892</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>1935</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>1925</v>
+      </c>
+      <c r="C9">
+        <v>1977</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>1946</v>
+      </c>
+      <c r="C10">
+        <v>1960</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <v>1953</v>
+      </c>
+      <c r="C11">
+        <v>1986</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>1952</v>
+      </c>
+      <c r="C12">
+        <v>1977</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>1950</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>1953</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>1956</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>1896</v>
+      </c>
+      <c r="C16">
+        <v>1993</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17">
+        <v>1876</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>1919</v>
+      </c>
+      <c r="C18">
+        <v>1925</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <v>1943</v>
+      </c>
+      <c r="C19">
+        <v>1947</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20">
+        <v>1867</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21">
+        <v>1962</v>
+      </c>
+      <c r="C21">
+        <v>1984</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>1956</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>1949</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
+        <v>1924</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25">
+        <v>1903</v>
+      </c>
+      <c r="C25">
+        <v>1992</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD8F279-6B04-4FEB-9EA2-0F8E8870188F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5">
+        <v>1947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEED81A-8415-4335-A778-F5732069C4E4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC3F3A-98D9-43BE-9970-8B2E7B96BA46}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
